--- a/carriers_source_analyses/co.carrier.xlsx
+++ b/carriers_source_analyses/co.carrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B550BFBF-46AC-7944-8EC4-881E04A55C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10800" windowWidth="51200" windowHeight="28800" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -40,10 +41,19 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="90">
   <si>
     <t>Source</t>
   </si>
@@ -330,8 +340,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -339,9 +349,8 @@
     <numFmt numFmtId="168" formatCode="0.00000000"/>
     <numFmt numFmtId="169" formatCode="0.000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1351,7 +1360,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1580,10 +1589,14 @@
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1629,15 +1642,9 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="377">
-    <cellStyle name="Excel Built-in Normal" xfId="365"/>
+    <cellStyle name="Excel Built-in Normal" xfId="365" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2021,6 +2028,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2042,7 +2052,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2502,41 +2518,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="28" customFormat="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>64</v>
@@ -2545,7 +2561,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -2554,7 +2570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -2563,17 +2579,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="78" t="s">
         <v>14</v>
@@ -2581,13 +2597,13 @@
       <c r="C9" s="79"/>
       <c r="D9" s="146"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
       <c r="D10" s="147"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="80" t="s">
         <v>15</v>
@@ -2597,7 +2613,7 @@
       </c>
       <c r="D11" s="147"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="80"/>
       <c r="C12" s="19" t="s">
@@ -2605,7 +2621,7 @@
       </c>
       <c r="D12" s="147"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="80"/>
       <c r="C13" s="83" t="s">
@@ -2613,7 +2629,7 @@
       </c>
       <c r="D13" s="147"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81" t="s">
@@ -2621,13 +2637,13 @@
       </c>
       <c r="D14" s="147"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
       <c r="D15" s="147"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="80" t="s">
         <v>20</v>
@@ -2637,7 +2653,7 @@
       </c>
       <c r="D16" s="147"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="80"/>
       <c r="C17" s="85" t="s">
@@ -2645,7 +2661,7 @@
       </c>
       <c r="D17" s="147"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="80"/>
       <c r="C18" s="86" t="s">
@@ -2653,7 +2669,7 @@
       </c>
       <c r="D18" s="147"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="80"/>
       <c r="C19" s="87" t="s">
@@ -2661,7 +2677,7 @@
       </c>
       <c r="D19" s="147"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="88"/>
       <c r="C20" s="89" t="s">
@@ -2669,7 +2685,7 @@
       </c>
       <c r="D20" s="147"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="88"/>
       <c r="C21" s="90" t="s">
@@ -2677,7 +2693,7 @@
       </c>
       <c r="D21" s="147"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="88"/>
       <c r="C22" s="91" t="s">
@@ -2685,14 +2701,14 @@
       </c>
       <c r="D22" s="147"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="88"/>
       <c r="C23" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="147"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="148"/>
       <c r="C24" s="149"/>
       <c r="D24" s="150"/>
@@ -2704,67 +2720,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:E4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="160" t="s">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
+    <row r="4" spans="2:10" ht="105" customHeight="1">
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -2775,7 +2791,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>12</v>
@@ -2796,7 +2812,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B8" s="24"/>
       <c r="C8" s="19"/>
       <c r="D8" s="32"/>
@@ -2807,7 +2823,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="24"/>
       <c r="C9" s="145" t="s">
         <v>66</v>
@@ -2820,7 +2836,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="24"/>
       <c r="C10" s="103" t="s">
         <v>36</v>
@@ -2842,35 +2858,35 @@
       </c>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="24"/>
       <c r="C11" s="112" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="156">
-        <f>'Research data'!G7</f>
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="47">
+        <f>'Research data'!G8</f>
+        <v>10.1</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="112"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="157"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="24"/>
-      <c r="C12" s="112" t="s">
-        <v>65</v>
+      <c r="C12" s="158" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E12" s="47">
-        <f>'Research data'!G8</f>
-        <v>10.1</v>
+        <f>'Research data'!G9</f>
+        <v>1.25E-9</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="112"/>
@@ -2878,55 +2894,19 @@
       <c r="I12" s="130"/>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="175" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="47">
-        <f>'Research data'!G9</f>
-        <v>1.25E-9</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="105">
-        <f>'Research data'!G10</f>
-        <v>0.15558698727015557</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+    <row r="13" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E4">
+  <autoFilter ref="B2:E4" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -2940,65 +2920,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="160" t="s">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3009,7 +2989,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>12</v>
@@ -3030,7 +3010,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="40"/>
       <c r="C8" s="76"/>
       <c r="D8" s="95"/>
@@ -3041,7 +3021,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="98"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="40"/>
       <c r="C9" s="19" t="s">
         <v>35</v>
@@ -3054,7 +3034,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="98"/>
     </row>
-    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="40"/>
       <c r="C10" s="136" t="s">
         <v>57</v>
@@ -3067,7 +3047,7 @@
       <c r="I10" s="112"/>
       <c r="J10" s="98"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="40"/>
       <c r="C11" s="115" t="s">
         <v>41</v>
@@ -3089,7 +3069,7 @@
       </c>
       <c r="J11" s="98"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="40"/>
       <c r="C12" s="115" t="s">
         <v>42</v>
@@ -3111,7 +3091,7 @@
       </c>
       <c r="J12" s="98"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="115" t="s">
         <v>46</v>
@@ -3133,7 +3113,7 @@
       </c>
       <c r="J13" s="98"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="115" t="s">
         <v>45</v>
@@ -3155,7 +3135,7 @@
       </c>
       <c r="J14" s="98"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="115" t="s">
         <v>38</v>
@@ -3177,7 +3157,7 @@
       </c>
       <c r="J15" s="98"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="115" t="s">
         <v>44</v>
@@ -3199,7 +3179,7 @@
       </c>
       <c r="J16" s="98"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="138" t="s">
         <v>43</v>
@@ -3219,7 +3199,7 @@
       </c>
       <c r="J17" s="98"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="40"/>
       <c r="C18" s="138"/>
       <c r="D18" s="23"/>
@@ -3230,7 +3210,7 @@
       <c r="I18" s="137"/>
       <c r="J18" s="98"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="40"/>
       <c r="C19" s="136" t="s">
         <v>58</v>
@@ -3243,7 +3223,7 @@
       <c r="I19" s="112"/>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="40"/>
       <c r="C20" s="115" t="s">
         <v>41</v>
@@ -3265,7 +3245,7 @@
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="115" t="s">
         <v>42</v>
@@ -3287,7 +3267,7 @@
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="115" t="s">
         <v>46</v>
@@ -3309,7 +3289,7 @@
       </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="115" t="s">
         <v>45</v>
@@ -3331,7 +3311,7 @@
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="40"/>
       <c r="C24" s="115" t="s">
         <v>38</v>
@@ -3353,7 +3333,7 @@
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="40"/>
       <c r="C25" s="115" t="s">
         <v>44</v>
@@ -3375,7 +3355,7 @@
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="40"/>
       <c r="C26" s="138" t="s">
         <v>43</v>
@@ -3395,7 +3375,7 @@
       </c>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="40"/>
       <c r="C27" s="138"/>
       <c r="D27" s="23"/>
@@ -3406,7 +3386,7 @@
       <c r="I27" s="137"/>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="40"/>
       <c r="C28" s="136" t="s">
         <v>59</v>
@@ -3419,7 +3399,7 @@
       <c r="I28" s="112"/>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="40"/>
       <c r="C29" s="115" t="s">
         <v>41</v>
@@ -3441,7 +3421,7 @@
       </c>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="40"/>
       <c r="C30" s="115" t="s">
         <v>42</v>
@@ -3463,7 +3443,7 @@
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="40"/>
       <c r="C31" s="115" t="s">
         <v>46</v>
@@ -3485,7 +3465,7 @@
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="40"/>
       <c r="C32" s="115" t="s">
         <v>45</v>
@@ -3507,7 +3487,7 @@
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="40"/>
       <c r="C33" s="115" t="s">
         <v>38</v>
@@ -3529,7 +3509,7 @@
       </c>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="40"/>
       <c r="C34" s="115" t="s">
         <v>44</v>
@@ -3551,7 +3531,7 @@
       </c>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="40"/>
       <c r="C35" s="138" t="s">
         <v>43</v>
@@ -3571,7 +3551,7 @@
       </c>
       <c r="J35" s="98"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="40"/>
       <c r="C36" s="138"/>
       <c r="D36" s="23"/>
@@ -3582,7 +3562,7 @@
       <c r="I36" s="137"/>
       <c r="J36" s="98"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="40"/>
       <c r="C37" s="136" t="s">
         <v>60</v>
@@ -3595,7 +3575,7 @@
       <c r="I37" s="112"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="40"/>
       <c r="C38" s="115" t="s">
         <v>41</v>
@@ -3617,7 +3597,7 @@
       </c>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="40"/>
       <c r="C39" s="115" t="s">
         <v>42</v>
@@ -3639,7 +3619,7 @@
       </c>
       <c r="J39" s="98"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="40"/>
       <c r="C40" s="115" t="s">
         <v>46</v>
@@ -3661,7 +3641,7 @@
       </c>
       <c r="J40" s="98"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="40"/>
       <c r="C41" s="115" t="s">
         <v>45</v>
@@ -3683,7 +3663,7 @@
       </c>
       <c r="J41" s="98"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="40"/>
       <c r="C42" s="115" t="s">
         <v>38</v>
@@ -3705,7 +3685,7 @@
       </c>
       <c r="J42" s="98"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="40"/>
       <c r="C43" s="115" t="s">
         <v>44</v>
@@ -3727,7 +3707,7 @@
       </c>
       <c r="J43" s="98"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="40"/>
       <c r="C44" s="138" t="s">
         <v>43</v>
@@ -3747,7 +3727,7 @@
       </c>
       <c r="J44" s="98"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="40"/>
       <c r="C45" s="138"/>
       <c r="D45" s="23"/>
@@ -3758,7 +3738,7 @@
       <c r="I45" s="137"/>
       <c r="J45" s="98"/>
     </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="17" thickBot="1">
       <c r="B46" s="40"/>
       <c r="C46" s="136" t="s">
         <v>61</v>
@@ -3771,7 +3751,7 @@
       <c r="I46" s="112"/>
       <c r="J46" s="98"/>
     </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="17" thickBot="1">
       <c r="B47" s="40"/>
       <c r="C47" s="115" t="s">
         <v>41</v>
@@ -3793,7 +3773,7 @@
       </c>
       <c r="J47" s="98"/>
     </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="17" thickBot="1">
       <c r="B48" s="40"/>
       <c r="C48" s="115" t="s">
         <v>42</v>
@@ -3815,7 +3795,7 @@
       </c>
       <c r="J48" s="98"/>
     </row>
-    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="17" thickBot="1">
       <c r="B49" s="40"/>
       <c r="C49" s="115" t="s">
         <v>46</v>
@@ -3837,7 +3817,7 @@
       </c>
       <c r="J49" s="98"/>
     </row>
-    <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="17" thickBot="1">
       <c r="B50" s="40"/>
       <c r="C50" s="115" t="s">
         <v>45</v>
@@ -3859,7 +3839,7 @@
       </c>
       <c r="J50" s="98"/>
     </row>
-    <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="17" thickBot="1">
       <c r="B51" s="40"/>
       <c r="C51" s="115" t="s">
         <v>38</v>
@@ -3881,7 +3861,7 @@
       </c>
       <c r="J51" s="98"/>
     </row>
-    <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="17" thickBot="1">
       <c r="B52" s="40"/>
       <c r="C52" s="115" t="s">
         <v>44</v>
@@ -3903,7 +3883,7 @@
       </c>
       <c r="J52" s="98"/>
     </row>
-    <row r="53" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="17" thickBot="1">
       <c r="B53" s="40"/>
       <c r="C53" s="138" t="s">
         <v>43</v>
@@ -3923,7 +3903,7 @@
       </c>
       <c r="J53" s="98"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10">
       <c r="B54" s="40"/>
       <c r="C54" s="138"/>
       <c r="D54" s="23"/>
@@ -3934,7 +3914,7 @@
       <c r="I54" s="137"/>
       <c r="J54" s="98"/>
     </row>
-    <row r="55" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="17" thickBot="1">
       <c r="B55" s="40"/>
       <c r="C55" s="136" t="s">
         <v>62</v>
@@ -3947,7 +3927,7 @@
       <c r="I55" s="112"/>
       <c r="J55" s="98"/>
     </row>
-    <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="17" thickBot="1">
       <c r="B56" s="40"/>
       <c r="C56" s="115" t="s">
         <v>41</v>
@@ -3969,7 +3949,7 @@
       </c>
       <c r="J56" s="98"/>
     </row>
-    <row r="57" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="17" thickBot="1">
       <c r="B57" s="40"/>
       <c r="C57" s="115" t="s">
         <v>42</v>
@@ -3991,7 +3971,7 @@
       </c>
       <c r="J57" s="98"/>
     </row>
-    <row r="58" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="17" thickBot="1">
       <c r="B58" s="40"/>
       <c r="C58" s="115" t="s">
         <v>46</v>
@@ -4013,7 +3993,7 @@
       </c>
       <c r="J58" s="98"/>
     </row>
-    <row r="59" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" ht="17" thickBot="1">
       <c r="B59" s="40"/>
       <c r="C59" s="115" t="s">
         <v>45</v>
@@ -4035,7 +4015,7 @@
       </c>
       <c r="J59" s="98"/>
     </row>
-    <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" ht="17" thickBot="1">
       <c r="B60" s="40"/>
       <c r="C60" s="115" t="s">
         <v>38</v>
@@ -4057,7 +4037,7 @@
       </c>
       <c r="J60" s="98"/>
     </row>
-    <row r="61" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="17" thickBot="1">
       <c r="B61" s="40"/>
       <c r="C61" s="115" t="s">
         <v>44</v>
@@ -4079,7 +4059,7 @@
       </c>
       <c r="J61" s="98"/>
     </row>
-    <row r="62" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="17" thickBot="1">
       <c r="B62" s="40"/>
       <c r="C62" s="138" t="s">
         <v>43</v>
@@ -4099,7 +4079,7 @@
       </c>
       <c r="J62" s="98"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10">
       <c r="B63" s="40"/>
       <c r="C63" s="138"/>
       <c r="D63" s="23"/>
@@ -4110,7 +4090,7 @@
       <c r="I63" s="137"/>
       <c r="J63" s="98"/>
     </row>
-    <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" ht="17" thickBot="1">
       <c r="B64" s="40"/>
       <c r="C64" s="136" t="s">
         <v>63</v>
@@ -4123,7 +4103,7 @@
       <c r="I64" s="112"/>
       <c r="J64" s="98"/>
     </row>
-    <row r="65" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" ht="17" thickBot="1">
       <c r="B65" s="40"/>
       <c r="C65" s="115" t="s">
         <v>41</v>
@@ -4145,7 +4125,7 @@
       </c>
       <c r="J65" s="98"/>
     </row>
-    <row r="66" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" ht="17" thickBot="1">
       <c r="B66" s="40"/>
       <c r="C66" s="115" t="s">
         <v>42</v>
@@ -4167,7 +4147,7 @@
       </c>
       <c r="J66" s="98"/>
     </row>
-    <row r="67" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" ht="17" thickBot="1">
       <c r="B67" s="40"/>
       <c r="C67" s="115" t="s">
         <v>46</v>
@@ -4189,7 +4169,7 @@
       </c>
       <c r="J67" s="98"/>
     </row>
-    <row r="68" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" ht="17" thickBot="1">
       <c r="B68" s="40"/>
       <c r="C68" s="115" t="s">
         <v>45</v>
@@ -4211,7 +4191,7 @@
       </c>
       <c r="J68" s="98"/>
     </row>
-    <row r="69" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" ht="17" thickBot="1">
       <c r="B69" s="40"/>
       <c r="C69" s="115" t="s">
         <v>38</v>
@@ -4233,7 +4213,7 @@
       </c>
       <c r="J69" s="98"/>
     </row>
-    <row r="70" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" ht="17" thickBot="1">
       <c r="B70" s="40"/>
       <c r="C70" s="115" t="s">
         <v>44</v>
@@ -4255,7 +4235,7 @@
       </c>
       <c r="J70" s="98"/>
     </row>
-    <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" ht="17" thickBot="1">
       <c r="B71" s="40"/>
       <c r="C71" s="138" t="s">
         <v>43</v>
@@ -4275,7 +4255,7 @@
       </c>
       <c r="J71" s="98"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10">
       <c r="B72" s="40"/>
       <c r="C72" s="138"/>
       <c r="D72" s="23"/>
@@ -4286,7 +4266,7 @@
       <c r="I72" s="137"/>
       <c r="J72" s="98"/>
     </row>
-    <row r="73" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" ht="17" thickBot="1">
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
@@ -4308,8 +4288,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:O127"/>
@@ -4318,27 +4298,27 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="66" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="66" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="66" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="66" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="67" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="66" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="66" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="67" customWidth="1"/>
     <col min="10" max="10" width="3" style="67" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="67" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="67" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="67" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="67" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="67" customWidth="1"/>
     <col min="15" max="15" width="60" style="66" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="66"/>
+    <col min="16" max="16384" width="10.85546875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -4354,7 +4334,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" s="25" customFormat="1">
       <c r="B3" s="24"/>
       <c r="C3" s="102" t="s">
         <v>29</v>
@@ -4382,7 +4362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -4398,7 +4378,7 @@
       <c r="N4" s="101"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="19" t="s">
         <v>54</v>
@@ -4416,7 +4396,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="72"/>
       <c r="C6" s="116" t="s">
         <v>36</v>
@@ -4442,7 +4422,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="117" t="s">
         <v>37</v>
@@ -4467,9 +4447,9 @@
       <c r="L7" s="18"/>
       <c r="M7" s="143"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="158"/>
-    </row>
-    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="156"/>
+    </row>
+    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="117" t="s">
         <v>65</v>
@@ -4499,7 +4479,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="117" t="s">
         <v>78</v>
@@ -4525,7 +4505,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="118" t="s">
         <v>38</v>
@@ -4555,7 +4535,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="72"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -4571,7 +4551,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" s="37" customFormat="1">
       <c r="B12" s="40"/>
       <c r="C12" s="19" t="s">
         <v>35</v>
@@ -4585,7 +4565,7 @@
       <c r="J12" s="18"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="132" t="s">
         <v>57</v>
@@ -4599,7 +4579,7 @@
       <c r="J13" s="18"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="119" t="s">
         <v>41</v>
@@ -4617,7 +4597,7 @@
       <c r="K14" s="142"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="119" t="s">
         <v>42</v>
@@ -4635,7 +4615,7 @@
       <c r="K15" s="142"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="119" t="s">
         <v>46</v>
@@ -4653,7 +4633,7 @@
       <c r="K16" s="142"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="119" t="s">
         <v>45</v>
@@ -4671,7 +4651,7 @@
       <c r="K17" s="142"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="119" t="s">
         <v>38</v>
@@ -4689,7 +4669,7 @@
       <c r="K18" s="142"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B19" s="40"/>
       <c r="C19" s="119" t="s">
         <v>44</v>
@@ -4707,7 +4687,7 @@
       <c r="K19" s="142"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B20" s="40"/>
       <c r="C20" s="139" t="s">
         <v>43</v>
@@ -4725,7 +4705,7 @@
       <c r="K20" s="141"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="37" customFormat="1">
       <c r="B21" s="40"/>
       <c r="C21" s="139"/>
       <c r="F21" s="23"/>
@@ -4736,7 +4716,7 @@
       <c r="K21" s="137"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="132" t="s">
         <v>58</v>
@@ -4749,7 +4729,7 @@
       <c r="K22" s="112"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="119" t="s">
         <v>41</v>
@@ -4767,7 +4747,7 @@
       <c r="K23" s="142"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B24" s="40"/>
       <c r="C24" s="119" t="s">
         <v>42</v>
@@ -4785,7 +4765,7 @@
       <c r="K24" s="142"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B25" s="40"/>
       <c r="C25" s="119" t="s">
         <v>46</v>
@@ -4803,7 +4783,7 @@
       <c r="K25" s="142"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B26" s="40"/>
       <c r="C26" s="119" t="s">
         <v>45</v>
@@ -4821,7 +4801,7 @@
       <c r="K26" s="142"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B27" s="40"/>
       <c r="C27" s="119" t="s">
         <v>38</v>
@@ -4839,7 +4819,7 @@
       <c r="K27" s="142"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B28" s="40"/>
       <c r="C28" s="119" t="s">
         <v>44</v>
@@ -4857,7 +4837,7 @@
       <c r="K28" s="142"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B29" s="40"/>
       <c r="C29" s="139" t="s">
         <v>43</v>
@@ -4875,7 +4855,7 @@
       <c r="K29" s="141"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="37" customFormat="1">
       <c r="B30" s="40"/>
       <c r="C30" s="139"/>
       <c r="F30" s="23"/>
@@ -4886,7 +4866,7 @@
       <c r="K30" s="137"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B31" s="40"/>
       <c r="C31" s="132" t="s">
         <v>59</v>
@@ -4899,7 +4879,7 @@
       <c r="K31" s="112"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B32" s="40"/>
       <c r="C32" s="119" t="s">
         <v>41</v>
@@ -4917,7 +4897,7 @@
       <c r="K32" s="142"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B33" s="40"/>
       <c r="C33" s="119" t="s">
         <v>42</v>
@@ -4935,7 +4915,7 @@
       <c r="K33" s="142"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B34" s="40"/>
       <c r="C34" s="119" t="s">
         <v>46</v>
@@ -4953,7 +4933,7 @@
       <c r="K34" s="142"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B35" s="40"/>
       <c r="C35" s="119" t="s">
         <v>45</v>
@@ -4971,7 +4951,7 @@
       <c r="K35" s="142"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B36" s="40"/>
       <c r="C36" s="119" t="s">
         <v>38</v>
@@ -4989,7 +4969,7 @@
       <c r="K36" s="142"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B37" s="40"/>
       <c r="C37" s="119" t="s">
         <v>44</v>
@@ -5007,7 +4987,7 @@
       <c r="K37" s="142"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B38" s="40"/>
       <c r="C38" s="139" t="s">
         <v>43</v>
@@ -5025,7 +5005,7 @@
       <c r="K38" s="141"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="37" customFormat="1">
       <c r="B39" s="40"/>
       <c r="C39" s="139"/>
       <c r="F39" s="23"/>
@@ -5036,7 +5016,7 @@
       <c r="K39" s="137"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B40" s="40"/>
       <c r="C40" s="132" t="s">
         <v>60</v>
@@ -5049,7 +5029,7 @@
       <c r="K40" s="112"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B41" s="40"/>
       <c r="C41" s="119" t="s">
         <v>41</v>
@@ -5067,7 +5047,7 @@
       <c r="K41" s="142"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B42" s="40"/>
       <c r="C42" s="119" t="s">
         <v>42</v>
@@ -5085,7 +5065,7 @@
       <c r="K42" s="142"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B43" s="40"/>
       <c r="C43" s="119" t="s">
         <v>46</v>
@@ -5103,7 +5083,7 @@
       <c r="K43" s="142"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B44" s="40"/>
       <c r="C44" s="119" t="s">
         <v>45</v>
@@ -5121,7 +5101,7 @@
       <c r="K44" s="142"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B45" s="40"/>
       <c r="C45" s="119" t="s">
         <v>38</v>
@@ -5139,7 +5119,7 @@
       <c r="K45" s="142"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B46" s="40"/>
       <c r="C46" s="119" t="s">
         <v>44</v>
@@ -5157,7 +5137,7 @@
       <c r="K46" s="142"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B47" s="40"/>
       <c r="C47" s="139" t="s">
         <v>43</v>
@@ -5175,7 +5155,7 @@
       <c r="K47" s="141"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" s="37" customFormat="1">
       <c r="B48" s="40"/>
       <c r="C48" s="139"/>
       <c r="F48" s="23"/>
@@ -5186,7 +5166,7 @@
       <c r="K48" s="137"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B49" s="40"/>
       <c r="C49" s="132" t="s">
         <v>61</v>
@@ -5199,7 +5179,7 @@
       <c r="K49" s="112"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B50" s="40"/>
       <c r="C50" s="119" t="s">
         <v>41</v>
@@ -5217,7 +5197,7 @@
       <c r="K50" s="142"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B51" s="40"/>
       <c r="C51" s="119" t="s">
         <v>42</v>
@@ -5235,7 +5215,7 @@
       <c r="K51" s="142"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B52" s="40"/>
       <c r="C52" s="119" t="s">
         <v>46</v>
@@ -5253,7 +5233,7 @@
       <c r="K52" s="142"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B53" s="40"/>
       <c r="C53" s="119" t="s">
         <v>45</v>
@@ -5271,7 +5251,7 @@
       <c r="K53" s="142"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B54" s="40"/>
       <c r="C54" s="119" t="s">
         <v>38</v>
@@ -5289,7 +5269,7 @@
       <c r="K54" s="142"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B55" s="40"/>
       <c r="C55" s="119" t="s">
         <v>44</v>
@@ -5307,7 +5287,7 @@
       <c r="K55" s="142"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B56" s="40"/>
       <c r="C56" s="139" t="s">
         <v>43</v>
@@ -5325,7 +5305,7 @@
       <c r="K56" s="141"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15" s="37" customFormat="1">
       <c r="B57" s="40"/>
       <c r="C57" s="139"/>
       <c r="F57" s="23"/>
@@ -5336,7 +5316,7 @@
       <c r="K57" s="137"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B58" s="40"/>
       <c r="C58" s="132" t="s">
         <v>62</v>
@@ -5349,7 +5329,7 @@
       <c r="K58" s="112"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B59" s="40"/>
       <c r="C59" s="119" t="s">
         <v>41</v>
@@ -5367,7 +5347,7 @@
       <c r="K59" s="142"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B60" s="40"/>
       <c r="C60" s="119" t="s">
         <v>42</v>
@@ -5385,7 +5365,7 @@
       <c r="K60" s="142"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="40"/>
       <c r="C61" s="119" t="s">
         <v>46</v>
@@ -5403,7 +5383,7 @@
       <c r="K61" s="142"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B62" s="40"/>
       <c r="C62" s="119" t="s">
         <v>45</v>
@@ -5421,7 +5401,7 @@
       <c r="K62" s="142"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B63" s="40"/>
       <c r="C63" s="119" t="s">
         <v>38</v>
@@ -5439,7 +5419,7 @@
       <c r="K63" s="142"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B64" s="40"/>
       <c r="C64" s="119" t="s">
         <v>44</v>
@@ -5457,7 +5437,7 @@
       <c r="K64" s="142"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B65" s="40"/>
       <c r="C65" s="139" t="s">
         <v>43</v>
@@ -5475,7 +5455,7 @@
       <c r="K65" s="141"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15" s="37" customFormat="1">
       <c r="B66" s="40"/>
       <c r="C66" s="139"/>
       <c r="F66" s="23"/>
@@ -5486,7 +5466,7 @@
       <c r="K66" s="137"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B67" s="40"/>
       <c r="C67" s="132" t="s">
         <v>63</v>
@@ -5499,7 +5479,7 @@
       <c r="K67" s="112"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B68" s="40"/>
       <c r="C68" s="119" t="s">
         <v>41</v>
@@ -5517,7 +5497,7 @@
       <c r="K68" s="142"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B69" s="40"/>
       <c r="C69" s="119" t="s">
         <v>42</v>
@@ -5535,7 +5515,7 @@
       <c r="K69" s="142"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B70" s="40"/>
       <c r="C70" s="119" t="s">
         <v>46</v>
@@ -5553,7 +5533,7 @@
       <c r="K70" s="142"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B71" s="40"/>
       <c r="C71" s="119" t="s">
         <v>45</v>
@@ -5571,7 +5551,7 @@
       <c r="K71" s="142"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B72" s="40"/>
       <c r="C72" s="119" t="s">
         <v>38</v>
@@ -5589,7 +5569,7 @@
       <c r="K72" s="142"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B73" s="40"/>
       <c r="C73" s="119" t="s">
         <v>44</v>
@@ -5607,7 +5587,7 @@
       <c r="K73" s="142"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B74" s="40"/>
       <c r="C74" s="139" t="s">
         <v>43</v>
@@ -5625,7 +5605,7 @@
       <c r="K74" s="141"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15" s="37" customFormat="1">
       <c r="B75" s="40"/>
       <c r="C75" s="138"/>
       <c r="D75" s="23"/>
@@ -5637,160 +5617,160 @@
       <c r="J75" s="18"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8">
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8">
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8">
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8">
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8">
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8">
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8">
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8">
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8">
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8">
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8">
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8">
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8">
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8">
       <c r="H94" s="17"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8">
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8">
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8">
       <c r="H97" s="17"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8">
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8">
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8">
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8">
       <c r="H101" s="17"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8">
       <c r="H102" s="17"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8">
       <c r="H103" s="17"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8">
       <c r="H104" s="17"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8">
       <c r="H105" s="17"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:8">
       <c r="H106" s="17"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:8">
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:8">
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:8">
       <c r="H109" s="17"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:8">
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:8">
       <c r="H111" s="17"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:8">
       <c r="H112" s="17"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:8">
       <c r="H113" s="17"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:8">
       <c r="H114" s="17"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:8">
       <c r="H115" s="17"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:8">
       <c r="H116" s="17"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:8">
       <c r="H117" s="17"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:8">
       <c r="H118" s="17"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:8">
       <c r="H119" s="17"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:8">
       <c r="H120" s="17"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:8">
       <c r="H121" s="17"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:8">
       <c r="H122" s="17"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="8:8">
       <c r="H123" s="17"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="8:8">
       <c r="H124" s="17"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="8:8">
       <c r="H125" s="17"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="8:8">
       <c r="H126" s="17"/>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="8:8">
       <c r="H127" s="17"/>
     </row>
   </sheetData>
@@ -5800,8 +5780,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L14"/>
@@ -5810,23 +5790,23 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="48" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="48"/>
+    <col min="7" max="7" width="10.28515625" style="48" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -5839,7 +5819,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>10</v>
@@ -5854,7 +5834,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -5867,7 +5847,7 @@
       <c r="K4" s="57"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>12</v>
@@ -5896,7 +5876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -5909,7 +5889,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="53"/>
       <c r="C7" s="133"/>
       <c r="D7" s="61"/>
@@ -5922,25 +5902,25 @@
       <c r="K7" s="57"/>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="53"/>
       <c r="C8" s="134"/>
       <c r="E8" s="126"/>
       <c r="F8" s="126"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="53"/>
       <c r="C9" s="135"/>
       <c r="E9" s="126"/>
       <c r="F9" s="126"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="53"/>
       <c r="C10" s="111"/>
       <c r="E10" s="126"/>
       <c r="F10" s="126"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="53"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -5953,7 +5933,7 @@
       <c r="K11" s="63"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="53"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -5966,7 +5946,7 @@
       <c r="K12" s="63"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="B13" s="53"/>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -5979,7 +5959,7 @@
       <c r="K13" s="63"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="53"/>
       <c r="E14" s="126"/>
       <c r="F14" s="126"/>
@@ -5991,29 +5971,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y153"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="106" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="106" customWidth="1"/>
     <col min="2" max="2" width="5" style="106" customWidth="1"/>
     <col min="3" max="3" width="7" style="106"/>
-    <col min="4" max="4" width="27.83203125" style="106" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="106" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="106" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="106" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="106"/>
-    <col min="8" max="8" width="9.5" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="106" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="17" thickBot="1"/>
+    <row r="2" spans="2:25" s="25" customFormat="1">
       <c r="B2" s="109"/>
       <c r="C2" s="110" t="s">
         <v>24</v>
@@ -6041,7 +6021,7 @@
       <c r="T2" s="110"/>
       <c r="U2" s="110"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" s="107"/>
       <c r="C3" s="108" t="s">
         <v>80</v>
@@ -6065,18 +6045,18 @@
       <c r="T3" s="108"/>
       <c r="U3" s="108"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="107"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="176"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
       <c r="M4" s="120"/>
       <c r="N4" s="120"/>
       <c r="O4" s="120"/>
@@ -6091,24 +6071,24 @@
       <c r="X4" s="120"/>
       <c r="Y4" s="120"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="107"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="176">
+      <c r="E5" s="159">
         <v>28</v>
       </c>
-      <c r="F5" s="176" t="s">
+      <c r="F5" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="176"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
       <c r="M5" s="120"/>
       <c r="N5" s="120"/>
       <c r="O5" s="120"/>
@@ -6123,24 +6103,24 @@
       <c r="X5" s="120"/>
       <c r="Y5" s="120"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="107"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176" t="s">
+      <c r="C6" s="159"/>
+      <c r="D6" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="176">
+      <c r="E6" s="159">
         <v>44</v>
       </c>
-      <c r="F6" s="176" t="s">
+      <c r="F6" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
       <c r="M6" s="120"/>
       <c r="N6" s="120"/>
       <c r="O6" s="120"/>
@@ -6155,18 +6135,18 @@
       <c r="X6" s="120"/>
       <c r="Y6" s="120"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="107"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
       <c r="M7" s="120"/>
       <c r="N7" s="120"/>
       <c r="O7" s="120"/>
@@ -6181,25 +6161,25 @@
       <c r="X7" s="120"/>
       <c r="Y7" s="120"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" customFormat="1">
       <c r="B8" s="107"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176" t="s">
+      <c r="C8" s="159"/>
+      <c r="D8" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="176">
+      <c r="E8" s="159">
         <f>101*100000</f>
         <v>10100000</v>
       </c>
-      <c r="F8" s="176" t="s">
+      <c r="F8" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
       <c r="M8" s="120"/>
       <c r="N8" s="120"/>
       <c r="O8" s="120"/>
@@ -6214,23 +6194,23 @@
       <c r="X8" s="120"/>
       <c r="Y8" s="120"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="107"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177">
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="160">
         <f>E8/(1000000)</f>
         <v>10.1</v>
       </c>
-      <c r="F9" s="176" t="s">
+      <c r="F9" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="177"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
       <c r="M9" s="120"/>
       <c r="N9" s="120"/>
       <c r="O9" s="120"/>
@@ -6245,18 +6225,18 @@
       <c r="X9" s="120"/>
       <c r="Y9" s="120"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" customFormat="1">
       <c r="B10" s="107"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
       <c r="M10" s="120"/>
       <c r="N10" s="120"/>
       <c r="O10" s="120"/>
@@ -6271,26 +6251,26 @@
       <c r="X10" s="120"/>
       <c r="Y10" s="120"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="107"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176" t="s">
+      <c r="C11" s="159"/>
+      <c r="D11" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="177">
+      <c r="E11" s="160">
         <v>1.25E-3</v>
       </c>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="177" t="s">
+      <c r="G11" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="178"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
       <c r="M11" s="120"/>
       <c r="N11" s="120"/>
       <c r="O11" s="120"/>
@@ -6305,23 +6285,23 @@
       <c r="X11" s="120"/>
       <c r="Y11" s="120"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="107"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="177">
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160">
         <f>E11/1000000</f>
         <v>1.25E-9</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F12" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="176"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
       <c r="M12" s="120"/>
       <c r="N12" s="120"/>
       <c r="O12" s="120"/>
@@ -6336,18 +6316,18 @@
       <c r="X12" s="120"/>
       <c r="Y12" s="120"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="107"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
       <c r="M13" s="120"/>
       <c r="N13" s="120"/>
       <c r="O13" s="120"/>
@@ -6362,25 +6342,25 @@
       <c r="X13" s="120"/>
       <c r="Y13" s="120"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" customFormat="1">
       <c r="B14" s="107"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176" t="s">
+      <c r="C14" s="159"/>
+      <c r="D14" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="176">
+      <c r="E14" s="159">
         <f>E6/(E9*E5)</f>
         <v>0.15558698727015557</v>
       </c>
-      <c r="F14" s="176" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
+      <c r="F14" s="159" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
       <c r="M14" s="120"/>
       <c r="N14" s="120"/>
       <c r="O14" s="120"/>
@@ -6395,18 +6375,18 @@
       <c r="X14" s="120"/>
       <c r="Y14" s="120"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="107"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
       <c r="M15" s="120"/>
       <c r="N15" s="120"/>
       <c r="O15" s="120"/>
@@ -6421,18 +6401,18 @@
       <c r="X15" s="120"/>
       <c r="Y15" s="120"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" customFormat="1">
       <c r="B16" s="107"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
       <c r="M16" s="120"/>
       <c r="N16" s="120"/>
       <c r="O16" s="120"/>
@@ -6447,18 +6427,18 @@
       <c r="X16" s="120"/>
       <c r="Y16" s="120"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="107"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
       <c r="M17" s="120"/>
       <c r="N17" s="120"/>
       <c r="O17" s="120"/>
@@ -6473,18 +6453,18 @@
       <c r="X17" s="120"/>
       <c r="Y17" s="120"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="107"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
       <c r="M18" s="120"/>
       <c r="N18" s="120"/>
       <c r="O18" s="120"/>
@@ -6499,18 +6479,18 @@
       <c r="X18" s="120"/>
       <c r="Y18" s="120"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="107"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
       <c r="M19" s="120"/>
       <c r="N19" s="120"/>
       <c r="O19" s="120"/>
@@ -6525,18 +6505,18 @@
       <c r="X19" s="120"/>
       <c r="Y19" s="120"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="107"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
       <c r="M20" s="120"/>
       <c r="N20" s="120"/>
       <c r="O20" s="120"/>
@@ -6551,18 +6531,18 @@
       <c r="X20" s="120"/>
       <c r="Y20" s="120"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="107"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
       <c r="M21" s="120"/>
       <c r="N21" s="120"/>
       <c r="O21" s="120"/>
@@ -6577,18 +6557,18 @@
       <c r="X21" s="120"/>
       <c r="Y21" s="120"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="107"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
       <c r="M22" s="120"/>
       <c r="N22" s="120"/>
       <c r="O22" s="120"/>
@@ -6603,18 +6583,18 @@
       <c r="X22" s="120"/>
       <c r="Y22" s="120"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="107"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
       <c r="M23" s="120"/>
       <c r="N23" s="120"/>
       <c r="O23" s="120"/>
@@ -6629,18 +6609,18 @@
       <c r="X23" s="120"/>
       <c r="Y23" s="120"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="107"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="176"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
       <c r="M24" s="120"/>
       <c r="N24" s="120"/>
       <c r="O24" s="120"/>
@@ -6655,18 +6635,18 @@
       <c r="X24" s="120"/>
       <c r="Y24" s="120"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="107"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="176"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
       <c r="M25" s="120"/>
       <c r="N25" s="120"/>
       <c r="O25" s="120"/>
@@ -6681,18 +6661,18 @@
       <c r="X25" s="120"/>
       <c r="Y25" s="120"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="107"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
       <c r="M26" s="120"/>
       <c r="N26" s="120"/>
       <c r="O26" s="120"/>
@@ -6707,18 +6687,18 @@
       <c r="X26" s="120"/>
       <c r="Y26" s="120"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="107"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
       <c r="M27" s="120"/>
       <c r="N27" s="120"/>
       <c r="O27" s="120"/>
@@ -6733,18 +6713,18 @@
       <c r="X27" s="120"/>
       <c r="Y27" s="120"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="107"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
       <c r="M28" s="120"/>
       <c r="N28" s="120"/>
       <c r="O28" s="120"/>
@@ -6759,18 +6739,18 @@
       <c r="X28" s="120"/>
       <c r="Y28" s="120"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="107"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
       <c r="M29" s="120"/>
       <c r="N29" s="120"/>
       <c r="O29" s="120"/>
@@ -6785,18 +6765,18 @@
       <c r="X29" s="120"/>
       <c r="Y29" s="120"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="107"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
       <c r="M30" s="120"/>
       <c r="N30" s="120"/>
       <c r="O30" s="120"/>
@@ -6811,85 +6791,85 @@
       <c r="X30" s="120"/>
       <c r="Y30" s="120"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="107"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-    </row>
-    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+    </row>
+    <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="107"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-    </row>
-    <row r="33" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+    </row>
+    <row r="33" spans="2:12" customFormat="1">
       <c r="B33" s="107"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
-    </row>
-    <row r="34" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+    </row>
+    <row r="34" spans="2:12" customFormat="1">
       <c r="B34" s="107"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="177"/>
-    </row>
-    <row r="35" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+    </row>
+    <row r="35" spans="2:12" customFormat="1">
       <c r="B35" s="107"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="177"/>
-      <c r="L35" s="177"/>
-    </row>
-    <row r="36" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+    </row>
+    <row r="36" spans="2:12" customFormat="1">
       <c r="B36" s="107"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="177"/>
-    </row>
-    <row r="37" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+    </row>
+    <row r="37" spans="2:12" customFormat="1">
       <c r="B37" s="107"/>
       <c r="C37" s="121"/>
       <c r="D37" s="121"/>
@@ -6902,7 +6882,7 @@
       <c r="K37" s="121"/>
       <c r="L37" s="121"/>
     </row>
-    <row r="38" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" customFormat="1">
       <c r="B38" s="107"/>
       <c r="C38" s="121"/>
       <c r="D38" s="121"/>
@@ -6915,7 +6895,7 @@
       <c r="K38" s="121"/>
       <c r="L38" s="121"/>
     </row>
-    <row r="39" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" customFormat="1">
       <c r="B39" s="107"/>
       <c r="C39" s="121"/>
       <c r="D39" s="121"/>
@@ -6928,7 +6908,7 @@
       <c r="K39" s="121"/>
       <c r="L39" s="121"/>
     </row>
-    <row r="40" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" customFormat="1">
       <c r="B40" s="107"/>
       <c r="C40" s="121"/>
       <c r="D40" s="121"/>
@@ -6941,68 +6921,68 @@
       <c r="K40" s="121"/>
       <c r="L40" s="121"/>
     </row>
-    <row r="41" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" customFormat="1">
       <c r="B41" s="107"/>
     </row>
-    <row r="42" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" customFormat="1">
       <c r="B42" s="107"/>
     </row>
-    <row r="43" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" customFormat="1">
       <c r="B43" s="107"/>
     </row>
-    <row r="44" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" customFormat="1">
       <c r="B44" s="107"/>
     </row>
-    <row r="45" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" customFormat="1">
       <c r="B45" s="107"/>
     </row>
-    <row r="46" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" customFormat="1">
       <c r="B46" s="107"/>
     </row>
-    <row r="47" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" customFormat="1">
       <c r="B47" s="107"/>
     </row>
-    <row r="48" spans="2:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" customFormat="1">
       <c r="B48" s="107"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" customFormat="1">
       <c r="B49" s="107"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" customFormat="1">
       <c r="B50" s="107"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" customFormat="1">
       <c r="B51" s="107"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" customFormat="1">
       <c r="B52" s="107"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" customFormat="1">
       <c r="B53" s="107"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" customFormat="1">
       <c r="B54" s="107"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" customFormat="1">
       <c r="B55" s="107"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" customFormat="1">
       <c r="B56" s="107"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" customFormat="1">
       <c r="B57" s="107"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" customFormat="1">
       <c r="B58" s="107"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" customFormat="1">
       <c r="B59" s="107"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" customFormat="1">
       <c r="B60" s="107"/>
     </row>
-    <row r="61" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="17" thickBot="1"/>
+    <row r="62" spans="1:25" s="25" customFormat="1">
       <c r="A62"/>
       <c r="B62" s="109"/>
       <c r="C62" s="110" t="s">
@@ -7031,7 +7011,7 @@
       <c r="T62" s="110"/>
       <c r="U62" s="110"/>
     </row>
-    <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" customFormat="1">
       <c r="B63" s="107"/>
       <c r="C63" s="122"/>
       <c r="D63" s="120"/>
@@ -7057,7 +7037,7 @@
       <c r="X63" s="120"/>
       <c r="Y63" s="120"/>
     </row>
-    <row r="64" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" customFormat="1" ht="21">
       <c r="B64" s="107"/>
       <c r="C64" s="127"/>
       <c r="D64" s="120"/>
@@ -7083,7 +7063,7 @@
       <c r="X64" s="120"/>
       <c r="Y64" s="120"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" customFormat="1">
       <c r="B65" s="107"/>
       <c r="C65" s="120"/>
       <c r="D65" s="120"/>
@@ -7109,34 +7089,34 @@
       <c r="X65" s="120"/>
       <c r="Y65" s="120"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25">
       <c r="F66" s="151"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25">
       <c r="F67" s="151"/>
     </row>
-    <row r="72" spans="2:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" ht="18">
       <c r="F72" s="152"/>
       <c r="G72" s="151"/>
       <c r="I72" s="151"/>
     </row>
-    <row r="73" spans="2:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" ht="18">
       <c r="F73" s="152"/>
       <c r="I73" s="151"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25">
       <c r="F74" s="153"/>
       <c r="G74" s="151"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25">
       <c r="G75" s="151"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25">
       <c r="F76" s="154"/>
       <c r="G76" s="151"/>
     </row>
-    <row r="102" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="17" thickBot="1"/>
+    <row r="103" spans="1:25" s="25" customFormat="1">
       <c r="A103"/>
       <c r="B103" s="109"/>
       <c r="C103" s="110" t="s">
@@ -7165,7 +7145,7 @@
       <c r="T103" s="110"/>
       <c r="U103" s="110"/>
     </row>
-    <row r="104" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" customFormat="1">
       <c r="B104" s="107"/>
       <c r="C104" s="122"/>
       <c r="D104" s="120"/>
@@ -7191,7 +7171,7 @@
       <c r="X104" s="120"/>
       <c r="Y104" s="120"/>
     </row>
-    <row r="105" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" customFormat="1" ht="21">
       <c r="B105" s="107"/>
       <c r="C105" s="127"/>
       <c r="D105" s="120"/>
@@ -7217,7 +7197,7 @@
       <c r="X105" s="120"/>
       <c r="Y105" s="120"/>
     </row>
-    <row r="106" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" customFormat="1">
       <c r="B106" s="107"/>
       <c r="C106" s="120"/>
       <c r="D106" s="120"/>
@@ -7243,7 +7223,7 @@
       <c r="X106" s="120"/>
       <c r="Y106" s="120"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25">
       <c r="E107" s="119" t="s">
         <v>38</v>
       </c>
@@ -7254,7 +7234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25">
       <c r="E108" s="119" t="s">
         <v>44</v>
       </c>
@@ -7265,7 +7245,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25">
       <c r="E109" s="139" t="s">
         <v>43</v>
       </c>
@@ -7276,13 +7256,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25">
       <c r="E110" s="139"/>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
       <c r="H110" s="23"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25">
       <c r="E111" s="132" t="s">
         <v>61</v>
       </c>
@@ -7290,7 +7270,7 @@
       <c r="G111" s="37"/>
       <c r="H111" s="112"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25">
       <c r="E112" s="119" t="s">
         <v>41</v>
       </c>
@@ -7301,7 +7281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:9">
       <c r="E113" s="119" t="s">
         <v>42</v>
       </c>
@@ -7312,7 +7292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:9">
       <c r="E114" s="119" t="s">
         <v>46</v>
       </c>
@@ -7323,7 +7303,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:9">
       <c r="E115" s="119" t="s">
         <v>45</v>
       </c>
@@ -7334,7 +7314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:9">
       <c r="E116" s="119" t="s">
         <v>38</v>
       </c>
@@ -7345,7 +7325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:9">
       <c r="E117" s="119" t="s">
         <v>44</v>
       </c>
@@ -7356,7 +7336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:9">
       <c r="E118" s="139" t="s">
         <v>43</v>
       </c>
@@ -7367,13 +7347,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:9">
       <c r="E119" s="139"/>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
       <c r="H119" s="23"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:9">
       <c r="E120" s="132" t="s">
         <v>62</v>
       </c>
@@ -7381,7 +7361,7 @@
       <c r="G120" s="37"/>
       <c r="H120" s="112"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:9">
       <c r="E121" s="119" t="s">
         <v>41</v>
       </c>
@@ -7392,7 +7372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:9">
       <c r="E122" s="119" t="s">
         <v>42</v>
       </c>
@@ -7403,7 +7383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:9">
       <c r="E123" s="119" t="s">
         <v>46</v>
       </c>
@@ -7414,7 +7394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:9" customFormat="1">
       <c r="E124" s="119" t="s">
         <v>45</v>
       </c>
@@ -7425,7 +7405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:9" customFormat="1">
       <c r="E125" s="119" t="s">
         <v>38</v>
       </c>
@@ -7436,7 +7416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:9" customFormat="1">
       <c r="E126" s="119" t="s">
         <v>44</v>
       </c>
@@ -7447,7 +7427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:9" customFormat="1">
       <c r="E127" s="139" t="s">
         <v>43</v>
       </c>
@@ -7458,13 +7438,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:9" customFormat="1">
       <c r="E128" s="139"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="23"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25">
       <c r="E129" s="132" t="s">
         <v>63</v>
       </c>
@@ -7472,7 +7452,7 @@
       <c r="G129" s="37"/>
       <c r="H129" s="112"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25">
       <c r="E130" s="119" t="s">
         <v>41</v>
       </c>
@@ -7483,7 +7463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25">
       <c r="E131" s="119" t="s">
         <v>42</v>
       </c>
@@ -7494,7 +7474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25">
       <c r="E132" s="119" t="s">
         <v>46</v>
       </c>
@@ -7505,7 +7485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25">
       <c r="E133" s="119" t="s">
         <v>45</v>
       </c>
@@ -7516,7 +7496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25">
       <c r="E134" s="119" t="s">
         <v>38</v>
       </c>
@@ -7527,7 +7507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25">
       <c r="E135" s="119" t="s">
         <v>44</v>
       </c>
@@ -7538,7 +7518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25">
       <c r="E136" s="139" t="s">
         <v>43</v>
       </c>
@@ -7549,8 +7529,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="17" thickBot="1"/>
+    <row r="139" spans="1:25" s="25" customFormat="1">
       <c r="A139"/>
       <c r="B139" s="109"/>
       <c r="C139" s="110" t="s">
@@ -7579,7 +7559,7 @@
       <c r="T139" s="110"/>
       <c r="U139" s="110"/>
     </row>
-    <row r="140" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" customFormat="1">
       <c r="B140" s="107"/>
       <c r="C140" s="122"/>
       <c r="D140" s="120"/>
@@ -7605,7 +7585,7 @@
       <c r="X140" s="120"/>
       <c r="Y140" s="120"/>
     </row>
-    <row r="141" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" customFormat="1" ht="21">
       <c r="B141" s="107"/>
       <c r="C141" s="127"/>
       <c r="D141" s="120"/>
@@ -7631,7 +7611,7 @@
       <c r="X141" s="120"/>
       <c r="Y141" s="120"/>
     </row>
-    <row r="142" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" customFormat="1">
       <c r="B142" s="107"/>
       <c r="C142" s="120"/>
       <c r="D142" s="120"/>
@@ -7657,29 +7637,29 @@
       <c r="X142" s="120"/>
       <c r="Y142" s="120"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25">
       <c r="F143" s="151"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25">
       <c r="F144" s="151"/>
     </row>
-    <row r="149" spans="6:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:9" ht="18">
       <c r="F149" s="152"/>
       <c r="G149" s="151"/>
       <c r="I149" s="151"/>
     </row>
-    <row r="150" spans="6:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:9" ht="18">
       <c r="F150" s="152"/>
       <c r="I150" s="151"/>
     </row>
-    <row r="151" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:9">
       <c r="F151" s="153"/>
       <c r="G151" s="151"/>
     </row>
-    <row r="152" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:9">
       <c r="G152" s="151"/>
     </row>
-    <row r="153" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:9">
       <c r="F153" s="154"/>
       <c r="G153" s="151"/>
     </row>
@@ -7691,61 +7671,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" s="37" customFormat="1">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="160" t="s">
+    <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+    <row r="3" spans="2:9" s="37" customFormat="1">
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="174"/>
+    <row r="4" spans="2:9" s="37" customFormat="1">
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:9" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="37" customFormat="1">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -7755,7 +7735,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="2:9" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="44" customFormat="1" ht="19">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>69</v>
@@ -7777,11 +7757,11 @@
       </c>
       <c r="I7" s="97"/>
     </row>
-    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="20" thickBot="1">
       <c r="B8" s="24"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="24"/>
       <c r="C9" s="103" t="s">
         <v>71</v>
@@ -7795,7 +7775,7 @@
       <c r="F9" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="159">
+      <c r="G9" s="157">
         <v>42412</v>
       </c>
       <c r="H9" s="113" t="s">
